--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1885623333333333</v>
+        <v>1.144722</v>
       </c>
       <c r="H2">
-        <v>0.5656869999999999</v>
+        <v>3.434166</v>
       </c>
       <c r="I2">
-        <v>0.0007833014168172617</v>
+        <v>0.002843321461639425</v>
       </c>
       <c r="J2">
-        <v>0.0007834081014554669</v>
+        <v>0.002849394892703057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.9737</v>
+        <v>2.632114</v>
       </c>
       <c r="N2">
-        <v>5.921099999999999</v>
+        <v>7.896342000000001</v>
       </c>
       <c r="O2">
-        <v>0.01139781017500287</v>
+        <v>0.009157018146333049</v>
       </c>
       <c r="P2">
-        <v>0.01144179882677649</v>
+        <v>0.00917615351935201</v>
       </c>
       <c r="Q2">
-        <v>0.3721654772999999</v>
+        <v>3.013038802308</v>
       </c>
       <c r="R2">
-        <v>3.349489295699999</v>
+        <v>27.11734922077201</v>
       </c>
       <c r="S2">
-        <v>8.927920858693953E-06</v>
+        <v>2.603634622009042E-05</v>
       </c>
       <c r="T2">
-        <v>8.963597896120355E-06</v>
+        <v>2.61464849727008E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1885623333333333</v>
+        <v>1.144722</v>
       </c>
       <c r="H3">
-        <v>0.5656869999999999</v>
+        <v>3.434166</v>
       </c>
       <c r="I3">
-        <v>0.0007833014168172617</v>
+        <v>0.002843321461639425</v>
       </c>
       <c r="J3">
-        <v>0.0007834081014554669</v>
+        <v>0.002849394892703057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.183786</v>
       </c>
       <c r="O3">
-        <v>0.004203674704164569</v>
+        <v>0.002532434389203008</v>
       </c>
       <c r="P3">
-        <v>0.004219898345363348</v>
+        <v>0.002537726404126322</v>
       </c>
       <c r="Q3">
-        <v>0.1372599278868889</v>
+        <v>0.833275959164</v>
       </c>
       <c r="R3">
-        <v>1.235339350982</v>
+        <v>7.499483632476001</v>
       </c>
       <c r="S3">
-        <v>3.29274435161099E-06</v>
+        <v>7.200525049014642E-06</v>
       </c>
       <c r="T3">
-        <v>3.305902551076167E-06</v>
+        <v>7.230984654995236E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1885623333333333</v>
+        <v>1.144722</v>
       </c>
       <c r="H4">
-        <v>0.5656869999999999</v>
+        <v>3.434166</v>
       </c>
       <c r="I4">
-        <v>0.0007833014168172617</v>
+        <v>0.002843321461639425</v>
       </c>
       <c r="J4">
-        <v>0.0007834081014554669</v>
+        <v>0.002849394892703057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>103.4861973333333</v>
+        <v>153.046158</v>
       </c>
       <c r="N4">
-        <v>310.458592</v>
+        <v>459.138474</v>
       </c>
       <c r="O4">
-        <v>0.5976166757552931</v>
+        <v>0.5324413935082427</v>
       </c>
       <c r="P4">
-        <v>0.5999231145747039</v>
+        <v>0.5335540335088085</v>
       </c>
       <c r="Q4">
-        <v>19.51359883696711</v>
+        <v>175.195304078076</v>
       </c>
       <c r="R4">
-        <v>175.6223895327039</v>
+        <v>1576.757736702684</v>
       </c>
       <c r="S4">
-        <v>0.0004681139888327432</v>
+        <v>0.001513902041227189</v>
       </c>
       <c r="T4">
-        <v>0.0004699846282082194</v>
+        <v>0.001520306138061115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1885623333333333</v>
+        <v>1.144722</v>
       </c>
       <c r="H5">
-        <v>0.5656869999999999</v>
+        <v>3.434166</v>
       </c>
       <c r="I5">
-        <v>0.0007833014168172617</v>
+        <v>0.002843321461639425</v>
       </c>
       <c r="J5">
-        <v>0.0007834081014554669</v>
+        <v>0.002849394892703057</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.9972265</v>
+        <v>1.798242</v>
       </c>
       <c r="N5">
-        <v>3.994453</v>
+        <v>3.596484</v>
       </c>
       <c r="O5">
-        <v>0.01153367204918953</v>
+        <v>0.006256011185495094</v>
       </c>
       <c r="P5">
-        <v>0.007718790030402091</v>
+        <v>0.004179389559607879</v>
       </c>
       <c r="Q5">
-        <v>0.3766016890351666</v>
+        <v>2.058487178724</v>
       </c>
       <c r="R5">
-        <v>2.259610134211</v>
+        <v>12.350923072344</v>
       </c>
       <c r="S5">
-        <v>9.034341657235811E-06</v>
+        <v>1.77878508679745E-05</v>
       </c>
       <c r="T5">
-        <v>6.046962643250688E-06</v>
+        <v>1.190873126576317E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1885623333333333</v>
+        <v>1.144722</v>
       </c>
       <c r="H6">
-        <v>0.5656869999999999</v>
+        <v>3.434166</v>
       </c>
       <c r="I6">
-        <v>0.0007833014168172617</v>
+        <v>0.002843321461639425</v>
       </c>
       <c r="J6">
-        <v>0.0007834081014554669</v>
+        <v>0.002849394892703057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.97978966666666</v>
+        <v>129.2378183333333</v>
       </c>
       <c r="N6">
-        <v>194.939369</v>
+        <v>387.713455</v>
       </c>
       <c r="O6">
-        <v>0.37524816731635</v>
+        <v>0.4496131427707262</v>
       </c>
       <c r="P6">
-        <v>0.376696398222754</v>
+        <v>0.4505526970081055</v>
       </c>
       <c r="Q6">
-        <v>12.25274075905589</v>
+        <v>147.94137387817</v>
       </c>
       <c r="R6">
-        <v>110.274666831503</v>
+        <v>1331.47236490353</v>
       </c>
       <c r="S6">
-        <v>0.0002939324211169779</v>
+        <v>0.001278394698275157</v>
       </c>
       <c r="T6">
-        <v>0.0002951070101568003</v>
+        <v>0.001283802553748484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.303538</v>
       </c>
       <c r="I7">
-        <v>0.003189687192904206</v>
+        <v>0.001907216783667987</v>
       </c>
       <c r="J7">
-        <v>0.003190121624167647</v>
+        <v>0.001911290663394668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.9737</v>
+        <v>2.632114</v>
       </c>
       <c r="N7">
-        <v>5.921099999999999</v>
+        <v>7.896342000000001</v>
       </c>
       <c r="O7">
-        <v>0.01139781017500287</v>
+        <v>0.009157018146333049</v>
       </c>
       <c r="P7">
-        <v>0.01144179882677649</v>
+        <v>0.00917615351935201</v>
       </c>
       <c r="Q7">
-        <v>1.5154976502</v>
+        <v>2.021058206444</v>
       </c>
       <c r="R7">
-        <v>13.6394788518</v>
+        <v>18.189523857996</v>
       </c>
       <c r="S7">
-        <v>3.635544914235991E-05</v>
+        <v>1.746441869703871E-05</v>
       </c>
       <c r="T7">
-        <v>3.650072985667568E-05</v>
+        <v>1.753829654741362E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.303538</v>
       </c>
       <c r="I8">
-        <v>0.003189687192904206</v>
+        <v>0.001907216783667987</v>
       </c>
       <c r="J8">
-        <v>0.003190121624167647</v>
+        <v>0.001911290663394668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.183786</v>
       </c>
       <c r="O8">
-        <v>0.004203674704164569</v>
+        <v>0.002532434389203008</v>
       </c>
       <c r="P8">
-        <v>0.004219898345363348</v>
+        <v>0.002537726404126322</v>
       </c>
       <c r="Q8">
         <v>0.5589371149853334</v>
@@ -948,10 +948,10 @@
         <v>5.030434034868001</v>
       </c>
       <c r="S8">
-        <v>1.34084073670091E-05</v>
+        <v>4.829901370625966E-06</v>
       </c>
       <c r="T8">
-        <v>1.346198896333289E-05</v>
+        <v>4.850332782456764E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.303538</v>
       </c>
       <c r="I9">
-        <v>0.003189687192904206</v>
+        <v>0.001907216783667987</v>
       </c>
       <c r="J9">
-        <v>0.003190121624167647</v>
+        <v>0.001911290663394668</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.4861973333333</v>
+        <v>153.046158</v>
       </c>
       <c r="N9">
-        <v>310.458592</v>
+        <v>459.138474</v>
       </c>
       <c r="O9">
-        <v>0.5976166757552931</v>
+        <v>0.5324413935082427</v>
       </c>
       <c r="P9">
-        <v>0.5999231145747039</v>
+        <v>0.5335540335088085</v>
       </c>
       <c r="Q9">
-        <v>79.46146267761065</v>
+        <v>117.515880235668</v>
       </c>
       <c r="R9">
-        <v>715.1531640984959</v>
+        <v>1057.642922121012</v>
       </c>
       <c r="S9">
-        <v>0.001906210256922644</v>
+        <v>0.001015481162018492</v>
       </c>
       <c r="T9">
-        <v>0.001913827700642768</v>
+        <v>0.001019776842661952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>2.303538</v>
       </c>
       <c r="I10">
-        <v>0.003189687192904206</v>
+        <v>0.001907216783667987</v>
       </c>
       <c r="J10">
-        <v>0.003190121624167647</v>
+        <v>0.001911290663394668</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>1.9972265</v>
+        <v>1.798242</v>
       </c>
       <c r="N10">
-        <v>3.994453</v>
+        <v>3.596484</v>
       </c>
       <c r="O10">
-        <v>0.01153367204918953</v>
+        <v>0.006256011185495094</v>
       </c>
       <c r="P10">
-        <v>0.007718790030402091</v>
+        <v>0.004179389559607879</v>
       </c>
       <c r="Q10">
-        <v>1.533562379119</v>
+        <v>1.380772926732</v>
       </c>
       <c r="R10">
-        <v>9.201374274714</v>
+        <v>8.284637560392</v>
       </c>
       <c r="S10">
-        <v>3.678880602245706E-05</v>
+        <v>1.19315695317909E-05</v>
       </c>
       <c r="T10">
-        <v>2.462387898839536E-05</v>
+        <v>7.988028243967692E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.303538</v>
       </c>
       <c r="I11">
-        <v>0.003189687192904206</v>
+        <v>0.001907216783667987</v>
       </c>
       <c r="J11">
-        <v>0.003190121624167647</v>
+        <v>0.001911290663394668</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.97978966666666</v>
+        <v>129.2378183333333</v>
       </c>
       <c r="N11">
-        <v>194.939369</v>
+        <v>387.713455</v>
       </c>
       <c r="O11">
-        <v>0.37524816731635</v>
+        <v>0.4496131427707262</v>
       </c>
       <c r="P11">
-        <v>0.376696398222754</v>
+        <v>0.4505526970081055</v>
       </c>
       <c r="Q11">
-        <v>49.89447157639133</v>
+        <v>99.23474185597668</v>
       </c>
       <c r="R11">
-        <v>449.050244187522</v>
+        <v>893.11267670379</v>
       </c>
       <c r="S11">
-        <v>0.001196924273449736</v>
+        <v>0.0008575097320500401</v>
       </c>
       <c r="T11">
-        <v>0.001201707325716475</v>
+        <v>0.0008611371631588788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.636996</v>
+        <v>211.0125426666667</v>
       </c>
       <c r="H12">
-        <v>400.910988</v>
+        <v>633.037628</v>
       </c>
       <c r="I12">
-        <v>0.5551376378067875</v>
+        <v>0.5241241901869959</v>
       </c>
       <c r="J12">
-        <v>0.5552132468338773</v>
+        <v>0.5252437372311233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.9737</v>
+        <v>2.632114</v>
       </c>
       <c r="N12">
-        <v>5.921099999999999</v>
+        <v>7.896342000000001</v>
       </c>
       <c r="O12">
-        <v>0.01139781017500287</v>
+        <v>0.009157018146333049</v>
       </c>
       <c r="P12">
-        <v>0.01144179882677649</v>
+        <v>0.00917615351935201</v>
       </c>
       <c r="Q12">
-        <v>263.7593390051999</v>
+        <v>555.4090677285308</v>
       </c>
       <c r="R12">
-        <v>2373.8340510468</v>
+        <v>4998.681609556776</v>
       </c>
       <c r="S12">
-        <v>0.006327353416721263</v>
+        <v>0.004799414720474435</v>
       </c>
       <c r="T12">
-        <v>0.00635263827623462</v>
+        <v>0.004819717167910974</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.636996</v>
+        <v>211.0125426666667</v>
       </c>
       <c r="H13">
-        <v>400.910988</v>
+        <v>633.037628</v>
       </c>
       <c r="I13">
-        <v>0.5551376378067875</v>
+        <v>0.5241241901869959</v>
       </c>
       <c r="J13">
-        <v>0.5552132468338773</v>
+        <v>0.5252437372311233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.183786</v>
       </c>
       <c r="O13">
-        <v>0.004203674704164569</v>
+        <v>0.002532434389203008</v>
       </c>
       <c r="P13">
-        <v>0.004219898345363348</v>
+        <v>0.002537726404126322</v>
       </c>
       <c r="Q13">
-        <v>97.27820031561865</v>
+        <v>153.6020788332898</v>
       </c>
       <c r="R13">
-        <v>875.5038028405679</v>
+        <v>1382.418709499608</v>
       </c>
       <c r="S13">
-        <v>0.002333618045378065</v>
+        <v>0.001327310123442726</v>
       </c>
       <c r="T13">
-        <v>0.002342943461638091</v>
+        <v>0.001332924900573409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>133.636996</v>
+        <v>211.0125426666667</v>
       </c>
       <c r="H14">
-        <v>400.910988</v>
+        <v>633.037628</v>
       </c>
       <c r="I14">
-        <v>0.5551376378067875</v>
+        <v>0.5241241901869959</v>
       </c>
       <c r="J14">
-        <v>0.5552132468338773</v>
+        <v>0.5252437372311233</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>103.4861973333333</v>
+        <v>153.046158</v>
       </c>
       <c r="N14">
-        <v>310.458592</v>
+        <v>459.138474</v>
       </c>
       <c r="O14">
-        <v>0.5976166757552931</v>
+        <v>0.5324413935082427</v>
       </c>
       <c r="P14">
-        <v>0.5999231145747039</v>
+        <v>0.5335540335088085</v>
       </c>
       <c r="Q14">
-        <v>13829.58453908987</v>
+        <v>32294.65894494441</v>
       </c>
       <c r="R14">
-        <v>124466.2608518089</v>
+        <v>290651.9305044997</v>
       </c>
       <c r="S14">
-        <v>0.3317595096927383</v>
+        <v>0.2790654141945433</v>
       </c>
       <c r="T14">
-        <v>0.3330852602937135</v>
+        <v>0.2802459145749066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>133.636996</v>
+        <v>211.0125426666667</v>
       </c>
       <c r="H15">
-        <v>400.910988</v>
+        <v>633.037628</v>
       </c>
       <c r="I15">
-        <v>0.5551376378067875</v>
+        <v>0.5241241901869959</v>
       </c>
       <c r="J15">
-        <v>0.5552132468338773</v>
+        <v>0.5252437372311233</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>1.9972265</v>
+        <v>1.798242</v>
       </c>
       <c r="N15">
-        <v>3.994453</v>
+        <v>3.596484</v>
       </c>
       <c r="O15">
-        <v>0.01153367204918953</v>
+        <v>0.006256011185495094</v>
       </c>
       <c r="P15">
-        <v>0.007718790030402091</v>
+        <v>0.004179389559607879</v>
       </c>
       <c r="Q15">
-        <v>266.9033497915939</v>
+        <v>379.451616749992</v>
       </c>
       <c r="R15">
-        <v>1601.420098749564</v>
+        <v>2276.709700499952</v>
       </c>
       <c r="S15">
-        <v>0.006402775456625247</v>
+        <v>0.003278926796398404</v>
       </c>
       <c r="T15">
-        <v>0.004285574474408508</v>
+        <v>0.00219519819163318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>133.636996</v>
+        <v>211.0125426666667</v>
       </c>
       <c r="H16">
-        <v>400.910988</v>
+        <v>633.037628</v>
       </c>
       <c r="I16">
-        <v>0.5551376378067875</v>
+        <v>0.5241241901869959</v>
       </c>
       <c r="J16">
-        <v>0.5552132468338773</v>
+        <v>0.5252437372311233</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.97978966666666</v>
+        <v>129.2378183333333</v>
       </c>
       <c r="N16">
-        <v>194.939369</v>
+        <v>387.713455</v>
       </c>
       <c r="O16">
-        <v>0.37524816731635</v>
+        <v>0.4496131427707262</v>
       </c>
       <c r="P16">
-        <v>0.376696398222754</v>
+        <v>0.4505526970081055</v>
       </c>
       <c r="Q16">
-        <v>8683.703891765173</v>
+        <v>27270.80065520942</v>
       </c>
       <c r="R16">
-        <v>78153.33502588657</v>
+        <v>245437.2058968848</v>
       </c>
       <c r="S16">
-        <v>0.2083143811953247</v>
+        <v>0.235653124352137</v>
       </c>
       <c r="T16">
-        <v>0.2091468303278825</v>
+        <v>0.2366499823960992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09834699999999999</v>
+        <v>2.5744045</v>
       </c>
       <c r="H17">
-        <v>0.196694</v>
+        <v>5.148809</v>
       </c>
       <c r="I17">
-        <v>0.0004085404708242928</v>
+        <v>0.006394442987722008</v>
       </c>
       <c r="J17">
-        <v>0.0002723974090047706</v>
+        <v>0.004272067823193035</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.9737</v>
+        <v>2.632114</v>
       </c>
       <c r="N17">
-        <v>5.921099999999999</v>
+        <v>7.896342000000001</v>
       </c>
       <c r="O17">
-        <v>0.01139781017500287</v>
+        <v>0.009157018146333049</v>
       </c>
       <c r="P17">
-        <v>0.01144179882677649</v>
+        <v>0.00917615351935201</v>
       </c>
       <c r="Q17">
-        <v>0.1941074739</v>
+        <v>6.776126126113</v>
       </c>
       <c r="R17">
-        <v>1.1646448434</v>
+        <v>40.656756756678</v>
       </c>
       <c r="S17">
-        <v>4.65646673526159E-06</v>
+        <v>5.855403047426255E-05</v>
       </c>
       <c r="T17">
-        <v>3.116716354767738E-06</v>
+        <v>3.920115019070326E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09834699999999999</v>
+        <v>2.5744045</v>
       </c>
       <c r="H18">
-        <v>0.196694</v>
+        <v>5.148809</v>
       </c>
       <c r="I18">
-        <v>0.0004085404708242928</v>
+        <v>0.006394442987722008</v>
       </c>
       <c r="J18">
-        <v>0.0002723974090047706</v>
+        <v>0.004272067823193035</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.183786</v>
       </c>
       <c r="O18">
-        <v>0.004203674704164569</v>
+        <v>0.002532434389203008</v>
       </c>
       <c r="P18">
-        <v>0.004219898345363348</v>
+        <v>0.002537726404126322</v>
       </c>
       <c r="Q18">
-        <v>0.07158960058066666</v>
+        <v>1.873982835145667</v>
       </c>
       <c r="R18">
-        <v>0.4295376034839999</v>
+        <v>11.243897010874</v>
       </c>
       <c r="S18">
-        <v>1.717371242831563E-06</v>
+        <v>1.619350732190524E-05</v>
       </c>
       <c r="T18">
-        <v>1.149489375540494E-06</v>
+        <v>1.084133931513543E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09834699999999999</v>
+        <v>2.5744045</v>
       </c>
       <c r="H19">
-        <v>0.196694</v>
+        <v>5.148809</v>
       </c>
       <c r="I19">
-        <v>0.0004085404708242928</v>
+        <v>0.006394442987722008</v>
       </c>
       <c r="J19">
-        <v>0.0002723974090047706</v>
+        <v>0.004272067823193035</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>103.4861973333333</v>
+        <v>153.046158</v>
       </c>
       <c r="N19">
-        <v>310.458592</v>
+        <v>459.138474</v>
       </c>
       <c r="O19">
-        <v>0.5976166757552931</v>
+        <v>0.5324413935082427</v>
       </c>
       <c r="P19">
-        <v>0.5999231145747039</v>
+        <v>0.5335540335088085</v>
       </c>
       <c r="Q19">
-        <v>10.17755704914133</v>
+        <v>394.002717862911</v>
       </c>
       <c r="R19">
-        <v>61.06534229484799</v>
+        <v>2364.016307177466</v>
       </c>
       <c r="S19">
-        <v>0.0002441505980855162</v>
+        <v>0.003404666135091717</v>
       </c>
       <c r="T19">
-        <v>0.0001634175020122215</v>
+        <v>0.00227937901848784</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.09834699999999999</v>
+        <v>2.5744045</v>
       </c>
       <c r="H20">
-        <v>0.196694</v>
+        <v>5.148809</v>
       </c>
       <c r="I20">
-        <v>0.0004085404708242928</v>
+        <v>0.006394442987722008</v>
       </c>
       <c r="J20">
-        <v>0.0002723974090047706</v>
+        <v>0.004272067823193035</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.9972265</v>
+        <v>1.798242</v>
       </c>
       <c r="N20">
-        <v>3.994453</v>
+        <v>3.596484</v>
       </c>
       <c r="O20">
-        <v>0.01153367204918953</v>
+        <v>0.006256011185495094</v>
       </c>
       <c r="P20">
-        <v>0.007718790030402091</v>
+        <v>0.004179389559607879</v>
       </c>
       <c r="Q20">
-        <v>0.1964212345955</v>
+        <v>4.629402296888999</v>
       </c>
       <c r="R20">
-        <v>0.7856849383819999</v>
+        <v>18.517609187556</v>
       </c>
       <c r="S20">
-        <v>4.711971809308878E-06</v>
+        <v>4.000370685619955E-05</v>
       </c>
       <c r="T20">
-        <v>2.102578404933384E-06</v>
+        <v>1.785463565818973E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.09834699999999999</v>
+        <v>2.5744045</v>
       </c>
       <c r="H21">
-        <v>0.196694</v>
+        <v>5.148809</v>
       </c>
       <c r="I21">
-        <v>0.0004085404708242928</v>
+        <v>0.006394442987722008</v>
       </c>
       <c r="J21">
-        <v>0.0002723974090047706</v>
+        <v>0.004272067823193035</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>64.97978966666666</v>
+        <v>129.2378183333333</v>
       </c>
       <c r="N21">
-        <v>194.939369</v>
+        <v>387.713455</v>
       </c>
       <c r="O21">
-        <v>0.37524816731635</v>
+        <v>0.4496131427707262</v>
       </c>
       <c r="P21">
-        <v>0.376696398222754</v>
+        <v>0.4505526970081055</v>
       </c>
       <c r="Q21">
-        <v>6.390567374347666</v>
+        <v>332.7104210875158</v>
       </c>
       <c r="R21">
-        <v>38.343404246086</v>
+        <v>1996.262526525095</v>
       </c>
       <c r="S21">
-        <v>0.0001533040629513746</v>
+        <v>0.002875025607977924</v>
       </c>
       <c r="T21">
-        <v>0.0001026111228573075</v>
+        <v>0.001924791679541168</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>106.0359293333333</v>
+        <v>187.100759</v>
       </c>
       <c r="H22">
-        <v>318.107788</v>
+        <v>561.302277</v>
       </c>
       <c r="I22">
-        <v>0.4404808331126668</v>
+        <v>0.4647308285799747</v>
       </c>
       <c r="J22">
-        <v>0.4405408260314948</v>
+        <v>0.4657235093895858</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.9737</v>
+        <v>2.632114</v>
       </c>
       <c r="N22">
-        <v>5.921099999999999</v>
+        <v>7.896342000000001</v>
       </c>
       <c r="O22">
-        <v>0.01139781017500287</v>
+        <v>0.009157018146333049</v>
       </c>
       <c r="P22">
-        <v>0.01144179882677649</v>
+        <v>0.00917615351935201</v>
       </c>
       <c r="Q22">
-        <v>209.2831137252</v>
+        <v>492.470527174526</v>
       </c>
       <c r="R22">
-        <v>1883.5480235268</v>
+        <v>4432.234744570735</v>
       </c>
       <c r="S22">
-        <v>0.005020516921545297</v>
+        <v>0.004255548630467221</v>
       </c>
       <c r="T22">
-        <v>0.005040579506434301</v>
+        <v>0.004273550419730217</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>106.0359293333333</v>
+        <v>187.100759</v>
       </c>
       <c r="H23">
-        <v>318.107788</v>
+        <v>561.302277</v>
       </c>
       <c r="I23">
-        <v>0.4404808331126668</v>
+        <v>0.4647308285799747</v>
       </c>
       <c r="J23">
-        <v>0.4405408260314948</v>
+        <v>0.4657235093895858</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.183786</v>
       </c>
       <c r="O23">
-        <v>0.004203674704164569</v>
+        <v>0.002532434389203008</v>
       </c>
       <c r="P23">
-        <v>0.004219898345363348</v>
+        <v>0.002537726404126322</v>
       </c>
       <c r="Q23">
-        <v>77.18659265837422</v>
+        <v>136.1960060311913</v>
       </c>
       <c r="R23">
-        <v>694.6793339253679</v>
+        <v>1225.764054280722</v>
       </c>
       <c r="S23">
-        <v>0.001851638135825052</v>
+        <v>0.001176900332018736</v>
       </c>
       <c r="T23">
-        <v>0.001859037502835307</v>
+        <v>0.001181878846800325</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>106.0359293333333</v>
+        <v>187.100759</v>
       </c>
       <c r="H24">
-        <v>318.107788</v>
+        <v>561.302277</v>
       </c>
       <c r="I24">
-        <v>0.4404808331126668</v>
+        <v>0.4647308285799747</v>
       </c>
       <c r="J24">
-        <v>0.4405408260314948</v>
+        <v>0.4657235093895858</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>103.4861973333333</v>
+        <v>153.046158</v>
       </c>
       <c r="N24">
-        <v>310.458592</v>
+        <v>459.138474</v>
       </c>
       <c r="O24">
-        <v>0.5976166757552931</v>
+        <v>0.5324413935082427</v>
       </c>
       <c r="P24">
-        <v>0.5999231145747039</v>
+        <v>0.5335540335088085</v>
       </c>
       <c r="Q24">
-        <v>10973.25510741272</v>
+        <v>28635.05232383392</v>
       </c>
       <c r="R24">
-        <v>98759.29596671448</v>
+        <v>257715.4709145053</v>
       </c>
       <c r="S24">
-        <v>0.263238691218714</v>
+        <v>0.247441929975362</v>
       </c>
       <c r="T24">
-        <v>0.2642906244501272</v>
+        <v>0.248488656934691</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>106.0359293333333</v>
+        <v>187.100759</v>
       </c>
       <c r="H25">
-        <v>318.107788</v>
+        <v>561.302277</v>
       </c>
       <c r="I25">
-        <v>0.4404808331126668</v>
+        <v>0.4647308285799747</v>
       </c>
       <c r="J25">
-        <v>0.4405408260314948</v>
+        <v>0.4657235093895858</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>1.9972265</v>
+        <v>1.798242</v>
       </c>
       <c r="N25">
-        <v>3.994453</v>
+        <v>3.596484</v>
       </c>
       <c r="O25">
-        <v>0.01153367204918953</v>
+        <v>0.006256011185495094</v>
       </c>
       <c r="P25">
-        <v>0.007718790030402091</v>
+        <v>0.004179389559607879</v>
       </c>
       <c r="Q25">
-        <v>211.7777680166606</v>
+        <v>336.452443065678</v>
       </c>
       <c r="R25">
-        <v>1270.666608099964</v>
+        <v>2018.714658394068</v>
       </c>
       <c r="S25">
-        <v>0.005080361473075284</v>
+        <v>0.002907361261840725</v>
       </c>
       <c r="T25">
-        <v>0.003400442135957004</v>
+        <v>0.001946439972806777</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>106.0359293333333</v>
+        <v>187.100759</v>
       </c>
       <c r="H26">
-        <v>318.107788</v>
+        <v>561.302277</v>
       </c>
       <c r="I26">
-        <v>0.4404808331126668</v>
+        <v>0.4647308285799747</v>
       </c>
       <c r="J26">
-        <v>0.4405408260314948</v>
+        <v>0.4657235093895858</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.97978966666666</v>
+        <v>129.2378183333333</v>
       </c>
       <c r="N26">
-        <v>194.939369</v>
+        <v>387.713455</v>
       </c>
       <c r="O26">
-        <v>0.37524816731635</v>
+        <v>0.4496131427707262</v>
       </c>
       <c r="P26">
-        <v>0.376696398222754</v>
+        <v>0.4505526970081055</v>
       </c>
       <c r="Q26">
-        <v>6890.192385189529</v>
+        <v>24180.49390167078</v>
       </c>
       <c r="R26">
-        <v>62011.73146670577</v>
+        <v>217624.445115037</v>
       </c>
       <c r="S26">
-        <v>0.1652896253635072</v>
+        <v>0.2089490883802861</v>
       </c>
       <c r="T26">
-        <v>0.165950142436141</v>
+        <v>0.2098329832155576</v>
       </c>
     </row>
   </sheetData>
